--- a/data/pca/factorExposure/factorExposure_2016-11-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-11-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01781817930491543</v>
+        <v>0.01546492159445866</v>
       </c>
       <c r="C2">
-        <v>-0.04632828146216579</v>
+        <v>-0.04162794831195735</v>
       </c>
       <c r="D2">
-        <v>0.02632224912318116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05729838509337376</v>
+      </c>
+      <c r="E2">
+        <v>0.02541070881197537</v>
+      </c>
+      <c r="F2">
+        <v>0.09272359695579695</v>
+      </c>
+      <c r="G2">
+        <v>0.02881111722468673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05544120148661687</v>
+        <v>0.03403177142328887</v>
       </c>
       <c r="C3">
-        <v>-0.09777227075480986</v>
+        <v>-0.08436705903859279</v>
       </c>
       <c r="D3">
-        <v>0.05662027646618056</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.1012262846274128</v>
+      </c>
+      <c r="E3">
+        <v>0.04183622528022399</v>
+      </c>
+      <c r="F3">
+        <v>0.06201000319396967</v>
+      </c>
+      <c r="G3">
+        <v>-0.06593915237326407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06280390010183794</v>
+        <v>0.05910141007972464</v>
       </c>
       <c r="C4">
-        <v>-0.06411470039946206</v>
+        <v>-0.06039989628265566</v>
       </c>
       <c r="D4">
-        <v>0.01104340337299219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0568482362881609</v>
+      </c>
+      <c r="E4">
+        <v>0.02206389854026782</v>
+      </c>
+      <c r="F4">
+        <v>0.09227845346873531</v>
+      </c>
+      <c r="G4">
+        <v>-0.03946928331194492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0278398925774824</v>
+        <v>0.03531691557789607</v>
       </c>
       <c r="C6">
-        <v>-0.04609060179175536</v>
+        <v>-0.03673418338102052</v>
       </c>
       <c r="D6">
-        <v>0.01709961773035439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06548370037811899</v>
+      </c>
+      <c r="E6">
+        <v>0.03154282445440507</v>
+      </c>
+      <c r="F6">
+        <v>0.08484461517133216</v>
+      </c>
+      <c r="G6">
+        <v>-0.01903443206094741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02544792904514872</v>
+        <v>0.02215003275517326</v>
       </c>
       <c r="C7">
-        <v>-0.04125124448914375</v>
+        <v>-0.03404234889790415</v>
       </c>
       <c r="D7">
-        <v>-0.0107466983012417</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03262849220978859</v>
+      </c>
+      <c r="E7">
+        <v>0.009308293071825935</v>
+      </c>
+      <c r="F7">
+        <v>0.1199855559918052</v>
+      </c>
+      <c r="G7">
+        <v>-0.005583795660658578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0007814350805124494</v>
+        <v>0.005459205005270937</v>
       </c>
       <c r="C8">
-        <v>-0.0133478171879569</v>
+        <v>-0.02053649734135236</v>
       </c>
       <c r="D8">
-        <v>0.01855577611448748</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03635190259806644</v>
+      </c>
+      <c r="E8">
+        <v>0.01863111325955801</v>
+      </c>
+      <c r="F8">
+        <v>0.06340297233881634</v>
+      </c>
+      <c r="G8">
+        <v>-0.009579707984079294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02840221863416681</v>
+        <v>0.03735503641376787</v>
       </c>
       <c r="C9">
-        <v>-0.04390057193230611</v>
+        <v>-0.0478617920251836</v>
       </c>
       <c r="D9">
-        <v>0.004950331667571434</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04089472868690792</v>
+      </c>
+      <c r="E9">
+        <v>0.01669053115806916</v>
+      </c>
+      <c r="F9">
+        <v>0.09739564742322254</v>
+      </c>
+      <c r="G9">
+        <v>-0.02264798255030069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07654209953801921</v>
+        <v>0.09423265875710113</v>
       </c>
       <c r="C10">
-        <v>0.195138463675584</v>
+        <v>0.1913898386220027</v>
       </c>
       <c r="D10">
-        <v>0.01349029062153787</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.00202033135983202</v>
+      </c>
+      <c r="E10">
+        <v>0.03705947233258432</v>
+      </c>
+      <c r="F10">
+        <v>0.0453900770689179</v>
+      </c>
+      <c r="G10">
+        <v>-0.004142199432182072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04277352511132866</v>
+        <v>0.03727994568086721</v>
       </c>
       <c r="C11">
-        <v>-0.05433889027460444</v>
+        <v>-0.05019778014345098</v>
       </c>
       <c r="D11">
-        <v>-0.004887692669611589</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02894885005355619</v>
+      </c>
+      <c r="E11">
+        <v>-0.008548184602158421</v>
+      </c>
+      <c r="F11">
+        <v>0.0694319919508402</v>
+      </c>
+      <c r="G11">
+        <v>-0.01294421722546007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03647222610221981</v>
+        <v>0.0378130933218034</v>
       </c>
       <c r="C12">
-        <v>-0.04569665078699817</v>
+        <v>-0.0456038764395048</v>
       </c>
       <c r="D12">
-        <v>-0.005849082887632709</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02223640918755995</v>
+      </c>
+      <c r="E12">
+        <v>-0.0004451882603227963</v>
+      </c>
+      <c r="F12">
+        <v>0.0710335104563897</v>
+      </c>
+      <c r="G12">
+        <v>-0.008872639908210524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01156639053955558</v>
+        <v>0.01310868287987167</v>
       </c>
       <c r="C13">
-        <v>-0.0445207924927245</v>
+        <v>-0.04160819496118465</v>
       </c>
       <c r="D13">
-        <v>0.02067259992702889</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06347338517396811</v>
+      </c>
+      <c r="E13">
+        <v>0.03566203015235708</v>
+      </c>
+      <c r="F13">
+        <v>0.1288786062123643</v>
+      </c>
+      <c r="G13">
+        <v>-0.01832204120965412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007162680768103502</v>
+        <v>0.00639952340575996</v>
       </c>
       <c r="C14">
-        <v>-0.03361813124284033</v>
+        <v>-0.02871532093755822</v>
       </c>
       <c r="D14">
-        <v>-0.0130998083245165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02887930377588891</v>
+      </c>
+      <c r="E14">
+        <v>0.009375009584745225</v>
+      </c>
+      <c r="F14">
+        <v>0.1010312440274356</v>
+      </c>
+      <c r="G14">
+        <v>0.008865521934191555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001266683500036101</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.001176453560172223</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.001438884319394615</v>
+      </c>
+      <c r="E15">
+        <v>-0.0009904396534898129</v>
+      </c>
+      <c r="F15">
+        <v>0.0001525033673384613</v>
+      </c>
+      <c r="G15">
+        <v>0.0009591972804546769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03587935671583126</v>
+        <v>0.03447247155267909</v>
       </c>
       <c r="C16">
-        <v>-0.04080182748065592</v>
+        <v>-0.04385388275214624</v>
       </c>
       <c r="D16">
-        <v>0.001668323935450005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02610976416400508</v>
+      </c>
+      <c r="E16">
+        <v>0.006136761882903127</v>
+      </c>
+      <c r="F16">
+        <v>0.0740699382266173</v>
+      </c>
+      <c r="G16">
+        <v>0.001106782246401672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.03102730364886513</v>
+        <v>0.01882893663421658</v>
       </c>
       <c r="C19">
-        <v>-0.06315815688608654</v>
+        <v>-0.05053249699501118</v>
       </c>
       <c r="D19">
-        <v>0.05258983047236224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1036492273261883</v>
+      </c>
+      <c r="E19">
+        <v>0.04752289801838099</v>
+      </c>
+      <c r="F19">
+        <v>0.1258539704371556</v>
+      </c>
+      <c r="G19">
+        <v>0.01764895035969039</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01526505996896253</v>
+        <v>0.01484174102528784</v>
       </c>
       <c r="C20">
-        <v>-0.0448385248589213</v>
+        <v>-0.03855758231835911</v>
       </c>
       <c r="D20">
-        <v>0.02543162677890381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04604807863995479</v>
+      </c>
+      <c r="E20">
+        <v>0.04291719234209283</v>
+      </c>
+      <c r="F20">
+        <v>0.09839385546764724</v>
+      </c>
+      <c r="G20">
+        <v>-0.002005321997904955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.007888795049669196</v>
+        <v>0.007811569310199957</v>
       </c>
       <c r="C21">
-        <v>-0.04719489906549214</v>
+        <v>-0.04303005922848995</v>
       </c>
       <c r="D21">
-        <v>0.03695824707556821</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07059538984555774</v>
+      </c>
+      <c r="E21">
+        <v>0.0380114159840229</v>
+      </c>
+      <c r="F21">
+        <v>0.1429881636735691</v>
+      </c>
+      <c r="G21">
+        <v>-0.001820725342297348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.003568358220095152</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01491669499665321</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.02914208393861026</v>
+      </c>
+      <c r="E22">
+        <v>0.003456035341347119</v>
+      </c>
+      <c r="F22">
+        <v>0.01723816475237874</v>
+      </c>
+      <c r="G22">
+        <v>-0.0350756549642328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.003620364966696758</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.01487590694978795</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.02886861248278133</v>
+      </c>
+      <c r="E23">
+        <v>0.003741599862471075</v>
+      </c>
+      <c r="F23">
+        <v>0.01696158030136098</v>
+      </c>
+      <c r="G23">
+        <v>-0.03507338730104017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0304257439086754</v>
+        <v>0.03324051803242208</v>
       </c>
       <c r="C24">
-        <v>-0.04662725880040997</v>
+        <v>-0.05034307353352917</v>
       </c>
       <c r="D24">
-        <v>-0.006122845146403755</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02373906919810464</v>
+      </c>
+      <c r="E24">
+        <v>0.001216963394792888</v>
+      </c>
+      <c r="F24">
+        <v>0.07954859011396921</v>
+      </c>
+      <c r="G24">
+        <v>-0.005687273856896832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04753238983501924</v>
+        <v>0.04335027296226374</v>
       </c>
       <c r="C25">
-        <v>-0.05786477224961943</v>
+        <v>-0.05698502208384645</v>
       </c>
       <c r="D25">
-        <v>-0.01593243269828194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02150820931668676</v>
+      </c>
+      <c r="E25">
+        <v>-0.002334629000375974</v>
+      </c>
+      <c r="F25">
+        <v>0.08137682569081665</v>
+      </c>
+      <c r="G25">
+        <v>-0.02189317243165331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.00964162909315495</v>
+        <v>0.0144114665060392</v>
       </c>
       <c r="C26">
-        <v>-0.0163803437045542</v>
+        <v>-0.01469005476605402</v>
       </c>
       <c r="D26">
-        <v>0.005304972531263624</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02263789187419611</v>
+      </c>
+      <c r="E26">
+        <v>0.01129334278909839</v>
+      </c>
+      <c r="F26">
+        <v>0.08051337908437642</v>
+      </c>
+      <c r="G26">
+        <v>0.01428043831859185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09094475063922561</v>
+        <v>0.1268739298755531</v>
       </c>
       <c r="C28">
-        <v>0.2233809114810149</v>
+        <v>0.2418893598509022</v>
       </c>
       <c r="D28">
-        <v>0.008978378425428103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01526056897657172</v>
+      </c>
+      <c r="E28">
+        <v>0.03730810844498964</v>
+      </c>
+      <c r="F28">
+        <v>0.05931106673835234</v>
+      </c>
+      <c r="G28">
+        <v>-0.01474919815823025</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01197632323965143</v>
+        <v>0.007601217603628399</v>
       </c>
       <c r="C29">
-        <v>-0.02603177230492929</v>
+        <v>-0.02427972917963466</v>
       </c>
       <c r="D29">
-        <v>-0.01311266020541897</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01855191797926097</v>
+      </c>
+      <c r="E29">
+        <v>0.01339395599755971</v>
+      </c>
+      <c r="F29">
+        <v>0.09263033473264537</v>
+      </c>
+      <c r="G29">
+        <v>-0.003601029289011789</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04372222766927663</v>
+        <v>0.04005056359059482</v>
       </c>
       <c r="C30">
-        <v>-0.07040823662986458</v>
+        <v>-0.05967947205047599</v>
       </c>
       <c r="D30">
-        <v>0.01193933188048751</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0993841443546005</v>
+      </c>
+      <c r="E30">
+        <v>0.0002893477459082677</v>
+      </c>
+      <c r="F30">
+        <v>0.1111503580460449</v>
+      </c>
+      <c r="G30">
+        <v>0.01798708077252834</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.04264249536894953</v>
+        <v>0.05645814218488576</v>
       </c>
       <c r="C31">
-        <v>-0.0328566035982741</v>
+        <v>-0.04548293329156101</v>
       </c>
       <c r="D31">
-        <v>-0.0114451263548734</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.001843429932862024</v>
+      </c>
+      <c r="E31">
+        <v>0.03480320243015436</v>
+      </c>
+      <c r="F31">
+        <v>0.0906036037070321</v>
+      </c>
+      <c r="G31">
+        <v>-0.04124810395153192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.007396244590997467</v>
+        <v>0.003523183156694473</v>
       </c>
       <c r="C32">
-        <v>-0.04048657060191031</v>
+        <v>-0.03166158458138256</v>
       </c>
       <c r="D32">
-        <v>0.02282727709996345</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04898424025812888</v>
+      </c>
+      <c r="E32">
+        <v>0.001125199167016884</v>
+      </c>
+      <c r="F32">
+        <v>0.07207321111239715</v>
+      </c>
+      <c r="G32">
+        <v>0.009823117450861698</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03006402406669752</v>
+        <v>0.02579324858930047</v>
       </c>
       <c r="C33">
-        <v>-0.06186642423182907</v>
+        <v>-0.05163828049340137</v>
       </c>
       <c r="D33">
-        <v>0.01978697458324731</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07864269858486636</v>
+      </c>
+      <c r="E33">
+        <v>0.0180810231804968</v>
+      </c>
+      <c r="F33">
+        <v>0.1414194974277951</v>
+      </c>
+      <c r="G33">
+        <v>-0.01956286948814108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05282637616629918</v>
+        <v>0.04283277700944876</v>
       </c>
       <c r="C34">
-        <v>-0.0557515965041936</v>
+        <v>-0.06184771756504645</v>
       </c>
       <c r="D34">
-        <v>-0.01077949542717703</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.02941036886218837</v>
+      </c>
+      <c r="E34">
+        <v>-0.0159114398844108</v>
+      </c>
+      <c r="F34">
+        <v>0.07656443019942827</v>
+      </c>
+      <c r="G34">
+        <v>-0.008433672050501316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.009100878417600555</v>
+        <v>0.01509447586005014</v>
       </c>
       <c r="C36">
-        <v>-0.01311609616344965</v>
+        <v>-0.01036013145886475</v>
       </c>
       <c r="D36">
-        <v>-0.0009977503163130423</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02440273079519401</v>
+      </c>
+      <c r="E36">
+        <v>0.01603744949785958</v>
+      </c>
+      <c r="F36">
+        <v>0.09162875414406353</v>
+      </c>
+      <c r="G36">
+        <v>-0.01043360411287676</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03576237433180132</v>
+        <v>0.02765673057811183</v>
       </c>
       <c r="C38">
-        <v>-0.02685310765247514</v>
+        <v>-0.0241129611927862</v>
       </c>
       <c r="D38">
-        <v>-0.005713128861376399</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02502767982871585</v>
+      </c>
+      <c r="E38">
+        <v>0.01794412811996282</v>
+      </c>
+      <c r="F38">
+        <v>0.08128233730525498</v>
+      </c>
+      <c r="G38">
+        <v>-0.007956062057606191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04116831865760136</v>
+        <v>0.03881433815144738</v>
       </c>
       <c r="C39">
-        <v>-0.07276872091580604</v>
+        <v>-0.06588117349977972</v>
       </c>
       <c r="D39">
-        <v>0.01010825222844737</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04667950122062935</v>
+      </c>
+      <c r="E39">
+        <v>-0.003575730902602276</v>
+      </c>
+      <c r="F39">
+        <v>0.09594428742345541</v>
+      </c>
+      <c r="G39">
+        <v>0.01859160726469389</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01846170578260995</v>
+        <v>0.01808781578291174</v>
       </c>
       <c r="C40">
-        <v>-0.02733904436138832</v>
+        <v>-0.03657848951956397</v>
       </c>
       <c r="D40">
-        <v>0.03086127924148047</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03803033914466562</v>
+      </c>
+      <c r="E40">
+        <v>0.04590205547298777</v>
+      </c>
+      <c r="F40">
+        <v>0.1087468062857999</v>
+      </c>
+      <c r="G40">
+        <v>-0.04983260701936287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01019191504810528</v>
+        <v>0.01827141606747415</v>
       </c>
       <c r="C41">
-        <v>-0.003525972218152717</v>
+        <v>-0.003448399624280256</v>
       </c>
       <c r="D41">
-        <v>-0.005054476159045539</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01780732807823244</v>
+      </c>
+      <c r="E41">
+        <v>0.02131753502170411</v>
+      </c>
+      <c r="F41">
+        <v>0.08115744403319609</v>
+      </c>
+      <c r="G41">
+        <v>-0.002981582210434382</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.00588086173007905</v>
+        <v>0.003489838470138213</v>
       </c>
       <c r="C42">
-        <v>-0.02121060711887182</v>
+        <v>-0.01118164826954002</v>
       </c>
       <c r="D42">
-        <v>0.02154114247503216</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.0074520918775147</v>
+      </c>
+      <c r="E42">
+        <v>0.01550248070492559</v>
+      </c>
+      <c r="F42">
+        <v>-0.01663059212983005</v>
+      </c>
+      <c r="G42">
+        <v>-0.01044637283111055</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03122080140331188</v>
+        <v>0.03119975673350383</v>
       </c>
       <c r="C43">
-        <v>-0.01735509315935274</v>
+        <v>-0.01756899025462722</v>
       </c>
       <c r="D43">
-        <v>-0.001186550605136913</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03912597316737657</v>
+      </c>
+      <c r="E43">
+        <v>0.01794787436917931</v>
+      </c>
+      <c r="F43">
+        <v>0.1009096002404927</v>
+      </c>
+      <c r="G43">
+        <v>-0.02515988124704822</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0230938551086329</v>
+        <v>0.01630664859847255</v>
       </c>
       <c r="C44">
-        <v>-0.05631127386292826</v>
+        <v>-0.05304968966950903</v>
       </c>
       <c r="D44">
-        <v>0.01384746308020981</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04343353893162651</v>
+      </c>
+      <c r="E44">
+        <v>0.03617469267521112</v>
+      </c>
+      <c r="F44">
+        <v>0.1094215814868383</v>
+      </c>
+      <c r="G44">
+        <v>0.002617255763317655</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0005631236060426385</v>
+        <v>0.008141881391164342</v>
       </c>
       <c r="C46">
-        <v>-0.02008773997774312</v>
+        <v>-0.02287243067063358</v>
       </c>
       <c r="D46">
-        <v>-0.01445973247047978</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01288090081645538</v>
+      </c>
+      <c r="E46">
+        <v>0.01731642718376128</v>
+      </c>
+      <c r="F46">
+        <v>0.1056327556412292</v>
+      </c>
+      <c r="G46">
+        <v>0.002083635415201593</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0786627869765914</v>
+        <v>0.08813547905813607</v>
       </c>
       <c r="C47">
-        <v>-0.07256108624876534</v>
+        <v>-0.07653119470844291</v>
       </c>
       <c r="D47">
-        <v>-0.004688401282590599</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.007819477260084074</v>
+      </c>
+      <c r="E47">
+        <v>0.04332487727732856</v>
+      </c>
+      <c r="F47">
+        <v>0.08791237856598971</v>
+      </c>
+      <c r="G47">
+        <v>-0.04372858999259081</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01815918459647474</v>
+        <v>0.01640245039834938</v>
       </c>
       <c r="C48">
-        <v>-0.01375170269012989</v>
+        <v>-0.01592678241319074</v>
       </c>
       <c r="D48">
-        <v>-0.00561538736502636</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0173986795307458</v>
+      </c>
+      <c r="E48">
+        <v>0.02682551556153945</v>
+      </c>
+      <c r="F48">
+        <v>0.1044290665274541</v>
+      </c>
+      <c r="G48">
+        <v>-0.006495822260643582</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08741992822110503</v>
+        <v>0.07390793312321101</v>
       </c>
       <c r="C50">
-        <v>-0.07057738455485763</v>
+        <v>-0.06857756026149986</v>
       </c>
       <c r="D50">
-        <v>-0.01961832821248893</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.001598288722749212</v>
+      </c>
+      <c r="E50">
+        <v>0.03685739171805304</v>
+      </c>
+      <c r="F50">
+        <v>0.08189997360449684</v>
+      </c>
+      <c r="G50">
+        <v>-0.07407683832577414</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.0124670034759768</v>
+        <v>0.01082181811549492</v>
       </c>
       <c r="C51">
-        <v>-0.04598861222029493</v>
+        <v>-0.03434124345024399</v>
       </c>
       <c r="D51">
-        <v>0.005239478151968432</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04689646984155747</v>
+      </c>
+      <c r="E51">
+        <v>0.003362957100844333</v>
+      </c>
+      <c r="F51">
+        <v>0.09273487998971459</v>
+      </c>
+      <c r="G51">
+        <v>0.01670688965810629</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.09600134435722761</v>
+        <v>0.09229309982685473</v>
       </c>
       <c r="C53">
-        <v>-0.07519315593384369</v>
+        <v>-0.08600773081028491</v>
       </c>
       <c r="D53">
-        <v>-0.03113097127661545</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03405235081319163</v>
+      </c>
+      <c r="E53">
+        <v>0.04683519741381917</v>
+      </c>
+      <c r="F53">
+        <v>0.0928548158357812</v>
+      </c>
+      <c r="G53">
+        <v>-0.05017221079715616</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02948822693081265</v>
+        <v>0.03011238540372497</v>
       </c>
       <c r="C54">
-        <v>-0.01507909812751529</v>
+        <v>-0.02384661487930352</v>
       </c>
       <c r="D54">
-        <v>0.002390860187314295</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03258104426566841</v>
+      </c>
+      <c r="E54">
+        <v>0.01451218352114916</v>
+      </c>
+      <c r="F54">
+        <v>0.1034698378734264</v>
+      </c>
+      <c r="G54">
+        <v>-0.002602012981373297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07451769024166745</v>
+        <v>0.08426047755994009</v>
       </c>
       <c r="C55">
-        <v>-0.06805876972293562</v>
+        <v>-0.06794341496522711</v>
       </c>
       <c r="D55">
-        <v>-0.02921791563587295</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04162626632163759</v>
+      </c>
+      <c r="E55">
+        <v>0.04420206989019487</v>
+      </c>
+      <c r="F55">
+        <v>0.06343056284771884</v>
+      </c>
+      <c r="G55">
+        <v>-0.04293108312826702</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1523460306882604</v>
+        <v>0.1461157362371049</v>
       </c>
       <c r="C56">
-        <v>-0.09136775262084805</v>
+        <v>-0.1009291757318986</v>
       </c>
       <c r="D56">
-        <v>-0.02610400490854529</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04328034953696722</v>
+      </c>
+      <c r="E56">
+        <v>0.04922112562507339</v>
+      </c>
+      <c r="F56">
+        <v>0.05700800956304789</v>
+      </c>
+      <c r="G56">
+        <v>-0.05007782062283206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.006532752578492266</v>
+        <v>0.002920168693455343</v>
       </c>
       <c r="C57">
-        <v>-0.001119575453364575</v>
+        <v>-0.0004554252354084055</v>
       </c>
       <c r="D57">
-        <v>0.0302250445887411</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02113178647181033</v>
+      </c>
+      <c r="E57">
+        <v>0.01207111198502057</v>
+      </c>
+      <c r="F57">
+        <v>0.01154618892459845</v>
+      </c>
+      <c r="G57">
+        <v>-0.0001092094053899852</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.06433666061228431</v>
+        <v>0.03821909337673193</v>
       </c>
       <c r="C58">
-        <v>-0.04486452247753241</v>
+        <v>-0.02961072821325229</v>
       </c>
       <c r="D58">
-        <v>0.9572808144163845</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.6023717050346199</v>
+      </c>
+      <c r="E58">
+        <v>0.6771041353863335</v>
+      </c>
+      <c r="F58">
+        <v>-0.3506880543271884</v>
+      </c>
+      <c r="G58">
+        <v>0.01482809677898357</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1329262587511271</v>
+        <v>0.14406327566781</v>
       </c>
       <c r="C59">
-        <v>0.2053481514040308</v>
+        <v>0.1945497798384294</v>
       </c>
       <c r="D59">
-        <v>0.01679771866351775</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02715208568680336</v>
+      </c>
+      <c r="E59">
+        <v>0.01287472280073392</v>
+      </c>
+      <c r="F59">
+        <v>0.02719129280122799</v>
+      </c>
+      <c r="G59">
+        <v>0.0307353355853467</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3152254884844148</v>
+        <v>0.2858394492590705</v>
       </c>
       <c r="C60">
-        <v>-0.08106352829412877</v>
+        <v>-0.08895303175926485</v>
       </c>
       <c r="D60">
-        <v>0.00931862274000052</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1785313617426131</v>
+      </c>
+      <c r="E60">
+        <v>-0.2893022138845016</v>
+      </c>
+      <c r="F60">
+        <v>-0.1464001115073839</v>
+      </c>
+      <c r="G60">
+        <v>-0.05068323076144667</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03773836657267648</v>
+        <v>0.04109871015302081</v>
       </c>
       <c r="C61">
-        <v>-0.06065567331348359</v>
+        <v>-0.05972331336924208</v>
       </c>
       <c r="D61">
-        <v>0.01010764770593651</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04364448748621493</v>
+      </c>
+      <c r="E61">
+        <v>0.003593152500692695</v>
+      </c>
+      <c r="F61">
+        <v>0.08691235459790447</v>
+      </c>
+      <c r="G61">
+        <v>-0.01072408846683016</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01598348029636051</v>
+        <v>0.01651232958395945</v>
       </c>
       <c r="C63">
-        <v>-0.03286643184454716</v>
+        <v>-0.03039189953482889</v>
       </c>
       <c r="D63">
-        <v>-0.008583077791692461</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01912659760111858</v>
+      </c>
+      <c r="E63">
+        <v>0.01949110929094675</v>
+      </c>
+      <c r="F63">
+        <v>0.08487933657022628</v>
+      </c>
+      <c r="G63">
+        <v>-0.02705192113507475</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04980192585793049</v>
+        <v>0.05451273724020294</v>
       </c>
       <c r="C64">
-        <v>-0.02699924213726322</v>
+        <v>-0.04738154788112474</v>
       </c>
       <c r="D64">
-        <v>-0.01311454764844205</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01085014939937362</v>
+      </c>
+      <c r="E64">
+        <v>0.005398760924267408</v>
+      </c>
+      <c r="F64">
+        <v>0.09566074504664071</v>
+      </c>
+      <c r="G64">
+        <v>0.0007147181712369756</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.09072998383444379</v>
+        <v>0.06873258735834495</v>
       </c>
       <c r="C65">
-        <v>-0.05267935547334322</v>
+        <v>-0.03991849728470772</v>
       </c>
       <c r="D65">
-        <v>0.01822050781193468</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.07818795744088332</v>
+      </c>
+      <c r="E65">
+        <v>0.00852262277787373</v>
+      </c>
+      <c r="F65">
+        <v>0.03718714779945057</v>
+      </c>
+      <c r="G65">
+        <v>-0.0005528877004144983</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06577587383985295</v>
+        <v>0.05260484999773715</v>
       </c>
       <c r="C66">
-        <v>-0.1083496230087426</v>
+        <v>-0.08997989119458488</v>
       </c>
       <c r="D66">
-        <v>0.01334045953561583</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07205229150602156</v>
+      </c>
+      <c r="E66">
+        <v>-0.005274351566325853</v>
+      </c>
+      <c r="F66">
+        <v>0.1001075011409338</v>
+      </c>
+      <c r="G66">
+        <v>-0.0001767834151137283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06083237747912889</v>
+        <v>0.05009158396420824</v>
       </c>
       <c r="C67">
-        <v>-0.03242369392418042</v>
+        <v>-0.02960880019038165</v>
       </c>
       <c r="D67">
-        <v>-0.01071217797288338</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01252099337626602</v>
+      </c>
+      <c r="E67">
+        <v>0.008160396182609168</v>
+      </c>
+      <c r="F67">
+        <v>0.06543359174412947</v>
+      </c>
+      <c r="G67">
+        <v>-0.01187360127339978</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1193322345491475</v>
+        <v>0.1493531943611556</v>
       </c>
       <c r="C68">
-        <v>0.2930559135100099</v>
+        <v>0.2642783131997851</v>
       </c>
       <c r="D68">
-        <v>0.01423599843382837</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01823477950042281</v>
+      </c>
+      <c r="E68">
+        <v>0.03946047705289055</v>
+      </c>
+      <c r="F68">
+        <v>0.02246118917569148</v>
+      </c>
+      <c r="G68">
+        <v>-0.006173234051813121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08828850256487671</v>
+        <v>0.08781084654502359</v>
       </c>
       <c r="C69">
-        <v>-0.06859239263281507</v>
+        <v>-0.08211674996615574</v>
       </c>
       <c r="D69">
-        <v>-0.03377173346738454</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008755985557284093</v>
+      </c>
+      <c r="E69">
+        <v>0.01501706238526233</v>
+      </c>
+      <c r="F69">
+        <v>0.09777438096411407</v>
+      </c>
+      <c r="G69">
+        <v>-0.01787297933847713</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1194924876042273</v>
+        <v>0.1379738521169012</v>
       </c>
       <c r="C71">
-        <v>0.2430289567404221</v>
+        <v>0.2386034117346163</v>
       </c>
       <c r="D71">
-        <v>0.02084008151421226</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.0155030852761895</v>
+      </c>
+      <c r="E71">
+        <v>0.0468175911762179</v>
+      </c>
+      <c r="F71">
+        <v>0.06680025689763867</v>
+      </c>
+      <c r="G71">
+        <v>-0.02731081573252877</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.08024874160980301</v>
+        <v>0.0896418224248671</v>
       </c>
       <c r="C72">
-        <v>-0.05163612932030689</v>
+        <v>-0.05403982312467717</v>
       </c>
       <c r="D72">
-        <v>-0.03824103575280206</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.009075715472777869</v>
+      </c>
+      <c r="E72">
+        <v>-0.01260829358039868</v>
+      </c>
+      <c r="F72">
+        <v>0.08193138401956064</v>
+      </c>
+      <c r="G72">
+        <v>-0.02094535602796993</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4397524253117051</v>
+        <v>0.3536144896297697</v>
       </c>
       <c r="C73">
-        <v>-0.06551266127947089</v>
+        <v>-0.06791601101963719</v>
       </c>
       <c r="D73">
-        <v>0.0574506360183814</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.3727921147150103</v>
+      </c>
+      <c r="E73">
+        <v>-0.5031961939713072</v>
+      </c>
+      <c r="F73">
+        <v>-0.3303894549503918</v>
+      </c>
+      <c r="G73">
+        <v>-0.1076896165986061</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1196106980343784</v>
+        <v>0.1132306156195618</v>
       </c>
       <c r="C74">
-        <v>-0.1154272960357176</v>
+        <v>-0.1006609027867712</v>
       </c>
       <c r="D74">
-        <v>-0.02683848673512618</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02062196766425492</v>
+      </c>
+      <c r="E74">
+        <v>0.06317646005496022</v>
+      </c>
+      <c r="F74">
+        <v>0.07332665210748993</v>
+      </c>
+      <c r="G74">
+        <v>-0.06738456641282511</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2624636451590719</v>
+        <v>0.2567094950195521</v>
       </c>
       <c r="C75">
-        <v>-0.121134322079907</v>
+        <v>-0.1379967694161371</v>
       </c>
       <c r="D75">
-        <v>-0.05231892340072366</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1113625571916176</v>
+      </c>
+      <c r="E75">
+        <v>0.1049408785216438</v>
+      </c>
+      <c r="F75">
+        <v>0.02620752936272512</v>
+      </c>
+      <c r="G75">
+        <v>-0.06380598479034427</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1185096691716055</v>
+        <v>0.1292012887976087</v>
       </c>
       <c r="C76">
-        <v>-0.1049375050839755</v>
+        <v>-0.1044829733567463</v>
       </c>
       <c r="D76">
-        <v>-0.03946326401438124</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05067498491022573</v>
+      </c>
+      <c r="E76">
+        <v>0.07517691051374255</v>
+      </c>
+      <c r="F76">
+        <v>0.07517294274219548</v>
+      </c>
+      <c r="G76">
+        <v>-0.05282010055903257</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07396508806322383</v>
+        <v>0.06725289056385289</v>
       </c>
       <c r="C77">
-        <v>-0.05559757275970809</v>
+        <v>-0.06076526867851443</v>
       </c>
       <c r="D77">
-        <v>0.03760380746662065</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.05955030073945691</v>
+      </c>
+      <c r="E77">
+        <v>0.04657483580998851</v>
+      </c>
+      <c r="F77">
+        <v>0.1153650543268863</v>
+      </c>
+      <c r="G77">
+        <v>0.1306636140905942</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04456326550568607</v>
+        <v>0.04205767953982642</v>
       </c>
       <c r="C78">
-        <v>-0.0436439458192208</v>
+        <v>-0.05250846568848264</v>
       </c>
       <c r="D78">
-        <v>0.006012522600155864</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06193030271656287</v>
+      </c>
+      <c r="E78">
+        <v>-0.01301171954060295</v>
+      </c>
+      <c r="F78">
+        <v>0.102250952029065</v>
+      </c>
+      <c r="G78">
+        <v>-0.003799673263377699</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01160686295866047</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.03362677766946839</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0403868478950148</v>
+      </c>
+      <c r="E79">
+        <v>0.03915765568533916</v>
+      </c>
+      <c r="F79">
+        <v>0.02342462377453965</v>
+      </c>
+      <c r="G79">
+        <v>-0.03760905985797652</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.05087833334382957</v>
+        <v>0.03955887019137597</v>
       </c>
       <c r="C80">
-        <v>-0.05075032514876128</v>
+        <v>-0.04404011842649686</v>
       </c>
       <c r="D80">
-        <v>0.02758974429513548</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04536633051771007</v>
+      </c>
+      <c r="E80">
+        <v>0.004466528802827003</v>
+      </c>
+      <c r="F80">
+        <v>0.04161135516730523</v>
+      </c>
+      <c r="G80">
+        <v>0.04389810677298633</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1377620181189024</v>
+        <v>0.1417641440042675</v>
       </c>
       <c r="C81">
-        <v>-0.08003712492148439</v>
+        <v>-0.09467344452696366</v>
       </c>
       <c r="D81">
-        <v>-0.03067728987839227</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.0803011661649294</v>
+      </c>
+      <c r="E81">
+        <v>0.08964199950395831</v>
+      </c>
+      <c r="F81">
+        <v>0.03496489899507142</v>
+      </c>
+      <c r="G81">
+        <v>-0.05376274873978373</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.07035346600733609</v>
+        <v>0.1922633070446788</v>
       </c>
       <c r="C82">
-        <v>-0.04279178626947883</v>
+        <v>-0.1337966253316003</v>
       </c>
       <c r="D82">
-        <v>-0.025910629603294</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2179553549139648</v>
+      </c>
+      <c r="E82">
+        <v>0.03705505826742107</v>
+      </c>
+      <c r="F82">
+        <v>0.06019077820818161</v>
+      </c>
+      <c r="G82">
+        <v>-0.0199116757687453</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.0276477096030195</v>
+        <v>0.02745973111161024</v>
       </c>
       <c r="C83">
-        <v>-0.02015664471447816</v>
+        <v>-0.03585109191672535</v>
       </c>
       <c r="D83">
-        <v>0.01866357401467164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03429279115649998</v>
+      </c>
+      <c r="E83">
+        <v>-0.002310529327077023</v>
+      </c>
+      <c r="F83">
+        <v>0.05126451122979677</v>
+      </c>
+      <c r="G83">
+        <v>0.02560923536625642</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2437338670232682</v>
+        <v>0.2101611961641523</v>
       </c>
       <c r="C85">
-        <v>-0.1164820527044709</v>
+        <v>-0.1213763503046608</v>
       </c>
       <c r="D85">
-        <v>-0.1241116318006159</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1065271964911799</v>
+      </c>
+      <c r="E85">
+        <v>0.02679746749773621</v>
+      </c>
+      <c r="F85">
+        <v>-0.01710668315240161</v>
+      </c>
+      <c r="G85">
+        <v>-0.1110263229384954</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.008640101358970856</v>
+        <v>0.01289145125634198</v>
       </c>
       <c r="C86">
-        <v>-0.0258354479944925</v>
+        <v>-0.03157155457407619</v>
       </c>
       <c r="D86">
-        <v>0.03249892856889189</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07405112891009526</v>
+      </c>
+      <c r="E86">
+        <v>0.0187093301820308</v>
+      </c>
+      <c r="F86">
+        <v>0.1516453141398764</v>
+      </c>
+      <c r="G86">
+        <v>0.01240049362085372</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.01322769239364031</v>
+        <v>0.02044794438605302</v>
       </c>
       <c r="C87">
-        <v>-0.02562999558043611</v>
+        <v>-0.01844165841028961</v>
       </c>
       <c r="D87">
-        <v>0.08456741524632613</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09747364382534252</v>
+      </c>
+      <c r="E87">
+        <v>0.05890524932380533</v>
+      </c>
+      <c r="F87">
+        <v>0.1082699131748022</v>
+      </c>
+      <c r="G87">
+        <v>0.03623987192368125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1019324641385403</v>
+        <v>0.08993217377352106</v>
       </c>
       <c r="C88">
-        <v>-0.07594952985031722</v>
+        <v>-0.06310285984581258</v>
       </c>
       <c r="D88">
-        <v>-0.01773226651740551</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01258238096253097</v>
+      </c>
+      <c r="E88">
+        <v>0.01635990405180112</v>
+      </c>
+      <c r="F88">
+        <v>0.07605710333574393</v>
+      </c>
+      <c r="G88">
+        <v>0.03145670606595363</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1896966593132931</v>
+        <v>0.2122537812997945</v>
       </c>
       <c r="C89">
-        <v>0.3754363049271157</v>
+        <v>0.3798760841809308</v>
       </c>
       <c r="D89">
-        <v>-0.01876401762229768</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01980541654533033</v>
+      </c>
+      <c r="E89">
+        <v>0.02493248204053393</v>
+      </c>
+      <c r="F89">
+        <v>0.09218244759691697</v>
+      </c>
+      <c r="G89">
+        <v>0.0723861595489758</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1760290143505101</v>
+        <v>0.1966246500529176</v>
       </c>
       <c r="C90">
-        <v>0.3517177985419333</v>
+        <v>0.3233537005670734</v>
       </c>
       <c r="D90">
-        <v>0.0007080899228945276</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01803578122502928</v>
+      </c>
+      <c r="E90">
+        <v>0.05010694478358946</v>
+      </c>
+      <c r="F90">
+        <v>0.05876959571425022</v>
+      </c>
+      <c r="G90">
+        <v>0.01507668250191497</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.2027085638292956</v>
+        <v>0.1943600078455617</v>
       </c>
       <c r="C91">
-        <v>-0.1137881541147157</v>
+        <v>-0.1362806344628747</v>
       </c>
       <c r="D91">
-        <v>-0.04977794171980437</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.09339681809297004</v>
+      </c>
+      <c r="E91">
+        <v>0.08719730259295343</v>
+      </c>
+      <c r="F91">
+        <v>0.05125648121160074</v>
+      </c>
+      <c r="G91">
+        <v>-0.05238144655295048</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1693509202116628</v>
+        <v>0.1788693695070258</v>
       </c>
       <c r="C92">
-        <v>0.2787000321119898</v>
+        <v>0.2817984991355086</v>
       </c>
       <c r="D92">
-        <v>-0.003906104180414505</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.002135170914420224</v>
+      </c>
+      <c r="E92">
+        <v>0.0760479667615505</v>
+      </c>
+      <c r="F92">
+        <v>0.07900225887595839</v>
+      </c>
+      <c r="G92">
+        <v>0.01699280577796976</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1948359006521402</v>
+        <v>0.2189942436915492</v>
       </c>
       <c r="C93">
-        <v>0.3390945893297806</v>
+        <v>0.3242286490459116</v>
       </c>
       <c r="D93">
-        <v>-0.001241164018496068</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.005021649158394747</v>
+      </c>
+      <c r="E93">
+        <v>0.03969875050369364</v>
+      </c>
+      <c r="F93">
+        <v>0.06289089945726078</v>
+      </c>
+      <c r="G93">
+        <v>-0.0289368793194425</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2821277297166722</v>
+        <v>0.3452157764349304</v>
       </c>
       <c r="C94">
-        <v>-0.1467263729061539</v>
+        <v>-0.1888570443091021</v>
       </c>
       <c r="D94">
-        <v>-0.1199148194634045</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4424848261576671</v>
+      </c>
+      <c r="E94">
+        <v>0.2550237284046559</v>
+      </c>
+      <c r="F94">
+        <v>-0.4268505856251854</v>
+      </c>
+      <c r="G94">
+        <v>0.2528396770354691</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.09100723536006011</v>
+        <v>0.08480369427551034</v>
       </c>
       <c r="C95">
-        <v>-0.07364026362012398</v>
+        <v>-0.07449957872260562</v>
       </c>
       <c r="D95">
-        <v>0.06512404883351575</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.137737741211698</v>
+      </c>
+      <c r="E95">
+        <v>-0.1327019986357141</v>
+      </c>
+      <c r="F95">
+        <v>0.1135751114941459</v>
+      </c>
+      <c r="G95">
+        <v>0.9025095790298142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2089087665980018</v>
+        <v>0.1923161817415687</v>
       </c>
       <c r="C98">
-        <v>-0.02708481223144853</v>
+        <v>-0.03541686318803106</v>
       </c>
       <c r="D98">
-        <v>0.0458926049138873</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.160109174502948</v>
+      </c>
+      <c r="E98">
+        <v>-0.1652209664073788</v>
+      </c>
+      <c r="F98">
+        <v>-0.05241096860686861</v>
+      </c>
+      <c r="G98">
+        <v>-0.1025069912836318</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.0116429599886734</v>
+        <v>0.007414831059655249</v>
       </c>
       <c r="C101">
-        <v>-0.02614689743589456</v>
+        <v>-0.02425672430417453</v>
       </c>
       <c r="D101">
-        <v>-0.01332896029468331</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01810868454032547</v>
+      </c>
+      <c r="E101">
+        <v>0.01391581867149723</v>
+      </c>
+      <c r="F101">
+        <v>0.09235950434980328</v>
+      </c>
+      <c r="G101">
+        <v>-0.002588889108941064</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1230941596817545</v>
+        <v>0.125139336968851</v>
       </c>
       <c r="C102">
-        <v>-0.07436652546441914</v>
+        <v>-0.09625636066365008</v>
       </c>
       <c r="D102">
-        <v>-0.02655762885023559</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04571146843029284</v>
+      </c>
+      <c r="E102">
+        <v>0.004155443255555543</v>
+      </c>
+      <c r="F102">
+        <v>0.028177986209132</v>
+      </c>
+      <c r="G102">
+        <v>-0.0143318508251417</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
